--- a/EstimatedActiveCasesOverTimeByCounty/2021-01-23.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-01-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="308">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/22/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/23/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Active Cases 01-22</t>
+  </si>
+  <si>
+    <t>Active Cases 01-23</t>
   </si>
   <si>
     <t/>
@@ -1092,6 +1095,7 @@
     <col min="42" max="42" width="12.0" customWidth="true"/>
     <col min="43" max="43" width="12.0" customWidth="true"/>
     <col min="44" max="44" width="12.0" customWidth="true"/>
+    <col min="45" max="45" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1237,13 +1241,16 @@
       <c r="AR3" t="s" s="10">
         <v>45</v>
       </c>
+      <c r="AS3" t="s" s="10">
+        <v>46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1370,14 +1377,17 @@
       </c>
       <c r="AR4" t="n">
         <v>510.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>494.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1504,14 +1514,17 @@
       </c>
       <c r="AR5" t="n">
         <v>229.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1638,14 +1651,17 @@
       </c>
       <c r="AR6" t="n">
         <v>985.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>850.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1772,14 +1788,17 @@
       </c>
       <c r="AR7" t="n">
         <v>147.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -1906,14 +1925,17 @@
       </c>
       <c r="AR8" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2040,14 +2062,17 @@
       </c>
       <c r="AR9" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2174,14 +2199,17 @@
       </c>
       <c r="AR10" t="n">
         <v>370.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>392.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2308,14 +2336,17 @@
       </c>
       <c r="AR11" t="n">
         <v>159.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2442,14 +2473,17 @@
       </c>
       <c r="AR12" t="n">
         <v>28.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2576,14 +2610,17 @@
       </c>
       <c r="AR13" t="n">
         <v>76.0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -2710,14 +2747,17 @@
       </c>
       <c r="AR14" t="n">
         <v>585.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>592.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -2844,14 +2884,17 @@
       </c>
       <c r="AR15" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -2978,14 +3021,17 @@
       </c>
       <c r="AR16" t="n">
         <v>347.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>337.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3112,14 +3158,17 @@
       </c>
       <c r="AR17" t="n">
         <v>2360.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2317.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3246,14 +3295,17 @@
       </c>
       <c r="AR18" t="n">
         <v>32123.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>33249.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3380,14 +3432,17 @@
       </c>
       <c r="AR19" t="n">
         <v>29.0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -3513,15 +3568,18 @@
         <v>0.0</v>
       </c>
       <c r="AR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -3648,14 +3706,17 @@
       </c>
       <c r="AR21" t="n">
         <v>174.0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -3782,14 +3843,17 @@
       </c>
       <c r="AR22" t="n">
         <v>395.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>980.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -3916,14 +3980,17 @@
       </c>
       <c r="AR23" t="n">
         <v>5576.0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>5679.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -4049,15 +4116,18 @@
         <v>1747.0</v>
       </c>
       <c r="AR24" t="n">
+        <v>1673.0</v>
+      </c>
+      <c r="AS24" t="n">
         <v>1673.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4184,14 +4254,17 @@
       </c>
       <c r="AR25" t="n">
         <v>61.0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -4318,14 +4391,17 @@
       </c>
       <c r="AR26" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -4452,14 +4528,17 @@
       </c>
       <c r="AR27" t="n">
         <v>75.0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -4586,14 +4665,17 @@
       </c>
       <c r="AR28" t="n">
         <v>516.0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>496.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -4720,14 +4802,17 @@
       </c>
       <c r="AR29" t="n">
         <v>145.0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -4854,14 +4939,17 @@
       </c>
       <c r="AR30" t="n">
         <v>240.0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -4988,14 +5076,17 @@
       </c>
       <c r="AR31" t="n">
         <v>261.0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -5122,14 +5213,17 @@
       </c>
       <c r="AR32" t="n">
         <v>113.0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -5256,14 +5350,17 @@
       </c>
       <c r="AR33" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -5390,14 +5487,17 @@
       </c>
       <c r="AR34" t="n">
         <v>4608.0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>4703.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -5524,14 +5624,17 @@
       </c>
       <c r="AR35" t="n">
         <v>39.0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -5658,14 +5761,17 @@
       </c>
       <c r="AR36" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -5792,14 +5898,17 @@
       </c>
       <c r="AR37" t="n">
         <v>31.0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -5925,15 +6034,18 @@
         <v>26.0</v>
       </c>
       <c r="AR38" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AS38" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -6060,14 +6172,17 @@
       </c>
       <c r="AR39" t="n">
         <v>323.0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -6194,14 +6309,17 @@
       </c>
       <c r="AR40" t="n">
         <v>165.0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -6327,15 +6445,18 @@
         <v>48.0</v>
       </c>
       <c r="AR41" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS41" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -6462,14 +6583,17 @@
       </c>
       <c r="AR42" t="n">
         <v>39.0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -6596,14 +6720,17 @@
       </c>
       <c r="AR43" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -6730,14 +6857,17 @@
       </c>
       <c r="AR44" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -6864,14 +6994,17 @@
       </c>
       <c r="AR45" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -6998,14 +7131,17 @@
       </c>
       <c r="AR46" t="n">
         <v>4807.0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>5135.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -7132,14 +7268,17 @@
       </c>
       <c r="AR47" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -7266,14 +7405,17 @@
       </c>
       <c r="AR48" t="n">
         <v>86.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -7400,14 +7542,17 @@
       </c>
       <c r="AR49" t="n">
         <v>725.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>691.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -7534,14 +7679,17 @@
       </c>
       <c r="AR50" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -7668,14 +7816,17 @@
       </c>
       <c r="AR51" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -7802,14 +7953,17 @@
       </c>
       <c r="AR52" t="n">
         <v>172.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -7936,14 +8090,17 @@
       </c>
       <c r="AR53" t="n">
         <v>632.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>537.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -8069,15 +8226,18 @@
         <v>3.0</v>
       </c>
       <c r="AR54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AS54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -8203,15 +8363,18 @@
         <v>0.0</v>
       </c>
       <c r="AR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -8337,15 +8500,18 @@
         <v>0.0</v>
       </c>
       <c r="AR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS56" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -8472,14 +8638,17 @@
       </c>
       <c r="AR57" t="n">
         <v>32.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -8606,14 +8775,17 @@
       </c>
       <c r="AR58" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -8739,15 +8911,18 @@
         <v>0.0</v>
       </c>
       <c r="AR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -8874,14 +9049,17 @@
       </c>
       <c r="AR60" t="n">
         <v>39394.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>39183.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -9008,14 +9186,17 @@
       </c>
       <c r="AR61" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -9142,14 +9323,17 @@
       </c>
       <c r="AR62" t="n">
         <v>105.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -9276,14 +9460,17 @@
       </c>
       <c r="AR63" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -9410,14 +9597,17 @@
       </c>
       <c r="AR64" t="n">
         <v>14823.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>15043.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -9543,15 +9733,18 @@
         <v>108.0</v>
       </c>
       <c r="AR65" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="AS65" t="n">
         <v>92.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -9678,14 +9871,17 @@
       </c>
       <c r="AR66" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -9812,14 +10008,17 @@
       </c>
       <c r="AR67" t="n">
         <v>145.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -9946,14 +10145,17 @@
       </c>
       <c r="AR68" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -10080,14 +10282,17 @@
       </c>
       <c r="AR69" t="n">
         <v>155.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -10214,14 +10419,17 @@
       </c>
       <c r="AR70" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -10348,14 +10556,17 @@
       </c>
       <c r="AR71" t="n">
         <v>1561.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1716.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -10482,14 +10693,17 @@
       </c>
       <c r="AR72" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -10616,14 +10830,17 @@
       </c>
       <c r="AR73" t="n">
         <v>946.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>865.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -10749,15 +10966,18 @@
         <v>34943.0</v>
       </c>
       <c r="AR74" t="n">
+        <v>35021.0</v>
+      </c>
+      <c r="AS74" t="n">
         <v>35021.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -10884,14 +11104,17 @@
       </c>
       <c r="AR75" t="n">
         <v>55.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -11018,14 +11241,17 @@
       </c>
       <c r="AR76" t="n">
         <v>155.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -11152,14 +11378,17 @@
       </c>
       <c r="AR77" t="n">
         <v>150.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -11285,15 +11514,18 @@
         <v>143.0</v>
       </c>
       <c r="AR78" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AS78" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -11419,15 +11651,18 @@
         <v>19.0</v>
       </c>
       <c r="AR79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS79" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -11554,14 +11789,17 @@
       </c>
       <c r="AR80" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -11688,14 +11926,17 @@
       </c>
       <c r="AR81" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -11822,14 +12063,17 @@
       </c>
       <c r="AR82" t="n">
         <v>13970.0</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>14138.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -11956,14 +12200,17 @@
       </c>
       <c r="AR83" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -12090,14 +12337,17 @@
       </c>
       <c r="AR84" t="n">
         <v>55.0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -12224,14 +12474,17 @@
       </c>
       <c r="AR85" t="n">
         <v>111.0</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -12358,14 +12611,17 @@
       </c>
       <c r="AR86" t="n">
         <v>61.0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -12492,14 +12748,17 @@
       </c>
       <c r="AR87" t="n">
         <v>7314.0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>7546.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -12625,15 +12884,18 @@
         <v>11.0</v>
       </c>
       <c r="AR88" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS88" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -12760,14 +13022,17 @@
       </c>
       <c r="AR89" t="n">
         <v>200.0</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -12893,15 +13158,18 @@
         <v>2.0</v>
       </c>
       <c r="AR90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -13027,15 +13295,18 @@
         <v>19.0</v>
       </c>
       <c r="AR91" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AS91" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -13162,14 +13433,17 @@
       </c>
       <c r="AR92" t="n">
         <v>186.0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -13296,14 +13570,17 @@
       </c>
       <c r="AR93" t="n">
         <v>99.0</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -13430,14 +13707,17 @@
       </c>
       <c r="AR94" t="n">
         <v>473.0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>423.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -13564,14 +13844,17 @@
       </c>
       <c r="AR95" t="n">
         <v>2882.0</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>3013.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -13698,14 +13981,17 @@
       </c>
       <c r="AR96" t="n">
         <v>48.0</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -13832,14 +14118,17 @@
       </c>
       <c r="AR97" t="n">
         <v>827.0</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>842.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -13966,14 +14255,17 @@
       </c>
       <c r="AR98" t="n">
         <v>214.0</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -14099,15 +14391,18 @@
         <v>92.0</v>
       </c>
       <c r="AR99" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AS99" t="n">
         <v>94.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -14234,14 +14529,17 @@
       </c>
       <c r="AR100" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -14368,14 +14666,17 @@
       </c>
       <c r="AR101" t="n">
         <v>48.0</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -14502,14 +14803,17 @@
       </c>
       <c r="AR102" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -14636,14 +14940,17 @@
       </c>
       <c r="AR103" t="n">
         <v>866.0</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>884.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -14770,14 +15077,17 @@
       </c>
       <c r="AR104" t="n">
         <v>48039.0</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>48445.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -14904,14 +15214,17 @@
       </c>
       <c r="AR105" t="n">
         <v>251.0</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1001.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -15038,14 +15351,17 @@
       </c>
       <c r="AR106" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -15172,14 +15488,17 @@
       </c>
       <c r="AR107" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -15306,14 +15625,17 @@
       </c>
       <c r="AR108" t="n">
         <v>2664.0</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2697.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -15440,14 +15762,17 @@
       </c>
       <c r="AR109" t="n">
         <v>101.0</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -15574,14 +15899,17 @@
       </c>
       <c r="AR110" t="n">
         <v>1605.0</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1629.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -15708,14 +16036,17 @@
       </c>
       <c r="AR111" t="n">
         <v>1985.0</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2046.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -15842,14 +16173,17 @@
       </c>
       <c r="AR112" t="n">
         <v>184.0</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -15976,14 +16310,17 @@
       </c>
       <c r="AR113" t="n">
         <v>101.0</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -16110,14 +16447,17 @@
       </c>
       <c r="AR114" t="n">
         <v>267.0</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -16244,14 +16584,17 @@
       </c>
       <c r="AR115" t="n">
         <v>124.0</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -16378,14 +16721,17 @@
       </c>
       <c r="AR116" t="n">
         <v>139.0</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -16512,14 +16858,17 @@
       </c>
       <c r="AR117" t="n">
         <v>267.0</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -16646,14 +16995,17 @@
       </c>
       <c r="AR118" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -16780,14 +17132,17 @@
       </c>
       <c r="AR119" t="n">
         <v>713.0</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>820.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -16914,14 +17269,17 @@
       </c>
       <c r="AR120" t="n">
         <v>89.0</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -17048,14 +17406,17 @@
       </c>
       <c r="AR121" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -17182,14 +17543,17 @@
       </c>
       <c r="AR122" t="n">
         <v>38.0</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -17316,14 +17680,17 @@
       </c>
       <c r="AR123" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -17450,14 +17817,17 @@
       </c>
       <c r="AR124" t="n">
         <v>168.0</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -17583,15 +17953,18 @@
         <v>9.0</v>
       </c>
       <c r="AR125" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS125" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -17718,14 +18091,17 @@
       </c>
       <c r="AR126" t="n">
         <v>3450.0</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>3409.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -17852,14 +18228,17 @@
       </c>
       <c r="AR127" t="n">
         <v>125.0</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -17986,14 +18365,17 @@
       </c>
       <c r="AR128" t="n">
         <v>534.0</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>505.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -18120,14 +18502,17 @@
       </c>
       <c r="AR129" t="n">
         <v>1023.0</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>942.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -18254,14 +18639,17 @@
       </c>
       <c r="AR130" t="n">
         <v>211.0</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -18388,14 +18776,17 @@
       </c>
       <c r="AR131" t="n">
         <v>50.0</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -18522,14 +18913,17 @@
       </c>
       <c r="AR132" t="n">
         <v>630.0</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>635.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -18656,14 +19050,17 @@
       </c>
       <c r="AR133" t="n">
         <v>204.0</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -18790,14 +19187,17 @@
       </c>
       <c r="AR134" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -18924,14 +19324,17 @@
       </c>
       <c r="AR135" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -19058,14 +19461,17 @@
       </c>
       <c r="AR136" t="n">
         <v>257.0</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -19192,14 +19598,17 @@
       </c>
       <c r="AR137" t="n">
         <v>32.0</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -19325,15 +19734,18 @@
         <v>5.0</v>
       </c>
       <c r="AR138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS138" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -19460,14 +19872,17 @@
       </c>
       <c r="AR139" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -19594,14 +20009,17 @@
       </c>
       <c r="AR140" t="n">
         <v>254.0</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -19728,14 +20146,17 @@
       </c>
       <c r="AR141" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -19862,14 +20283,17 @@
       </c>
       <c r="AR142" t="n">
         <v>1023.0</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1022.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -19996,14 +20420,17 @@
       </c>
       <c r="AR143" t="n">
         <v>97.0</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -20130,14 +20557,17 @@
       </c>
       <c r="AR144" t="n">
         <v>176.0</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -20263,15 +20693,18 @@
         <v>63.0</v>
       </c>
       <c r="AR145" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AS145" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -20398,14 +20831,17 @@
       </c>
       <c r="AR146" t="n">
         <v>86.0</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -20532,14 +20968,17 @@
       </c>
       <c r="AR147" t="n">
         <v>214.0</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -20666,14 +21105,17 @@
       </c>
       <c r="AR148" t="n">
         <v>87.0</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -20800,14 +21242,17 @@
       </c>
       <c r="AR149" t="n">
         <v>533.0</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>522.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -20934,14 +21379,17 @@
       </c>
       <c r="AR150" t="n">
         <v>128.0</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -21068,14 +21516,17 @@
       </c>
       <c r="AR151" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -21202,14 +21653,17 @@
       </c>
       <c r="AR152" t="n">
         <v>123.0</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -21336,14 +21790,17 @@
       </c>
       <c r="AR153" t="n">
         <v>155.0</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -21469,15 +21926,18 @@
         <v>0.0</v>
       </c>
       <c r="AR154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -21604,14 +22064,17 @@
       </c>
       <c r="AR155" t="n">
         <v>2807.0</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2641.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B156" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -21737,15 +22200,18 @@
         <v>16.0</v>
       </c>
       <c r="AR156" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AS156" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B157" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -21872,14 +22338,17 @@
       </c>
       <c r="AR157" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -22006,14 +22475,17 @@
       </c>
       <c r="AR158" t="n">
         <v>1075.0</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1020.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B159" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -22140,14 +22612,17 @@
       </c>
       <c r="AR159" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -22274,14 +22749,17 @@
       </c>
       <c r="AR160" t="n">
         <v>50.0</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B161" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -22408,14 +22886,17 @@
       </c>
       <c r="AR161" t="n">
         <v>51.0</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B162" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -22541,15 +23022,18 @@
         <v>19.0</v>
       </c>
       <c r="AR162" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS162" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -22676,14 +23160,17 @@
       </c>
       <c r="AR163" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -22810,14 +23297,17 @@
       </c>
       <c r="AR164" t="n">
         <v>230.0</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -22944,14 +23434,17 @@
       </c>
       <c r="AR165" t="n">
         <v>1479.0</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1343.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -23078,14 +23571,17 @@
       </c>
       <c r="AR166" t="n">
         <v>207.0</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -23212,14 +23708,17 @@
       </c>
       <c r="AR167" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -23346,14 +23845,17 @@
       </c>
       <c r="AR168" t="n">
         <v>1899.0</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1898.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -23480,14 +23982,17 @@
       </c>
       <c r="AR169" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -23614,14 +24119,17 @@
       </c>
       <c r="AR170" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -23747,15 +24255,18 @@
         <v>34.0</v>
       </c>
       <c r="AR171" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS171" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -23882,14 +24393,17 @@
       </c>
       <c r="AR172" t="n">
         <v>58.0</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -24016,14 +24530,17 @@
       </c>
       <c r="AR173" t="n">
         <v>17529.0</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>17338.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -24150,14 +24667,17 @@
       </c>
       <c r="AR174" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B175" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -24284,14 +24804,17 @@
       </c>
       <c r="AR175" t="n">
         <v>52.0</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -24418,14 +24941,17 @@
       </c>
       <c r="AR176" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -24552,14 +25078,17 @@
       </c>
       <c r="AR177" t="n">
         <v>191.0</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>524.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -24686,14 +25215,17 @@
       </c>
       <c r="AR178" t="n">
         <v>826.0</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>732.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B179" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -24820,14 +25352,17 @@
       </c>
       <c r="AR179" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -24954,14 +25489,17 @@
       </c>
       <c r="AR180" t="n">
         <v>268.0</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -25088,14 +25626,17 @@
       </c>
       <c r="AR181" t="n">
         <v>3137.0</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>3135.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -25222,14 +25763,17 @@
       </c>
       <c r="AR182" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B183" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -25356,14 +25900,17 @@
       </c>
       <c r="AR183" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -25490,14 +26037,17 @@
       </c>
       <c r="AR184" t="n">
         <v>1328.0</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1531.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -25624,14 +26174,17 @@
       </c>
       <c r="AR185" t="n">
         <v>103.0</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B186" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -25758,14 +26311,17 @@
       </c>
       <c r="AR186" t="n">
         <v>56.0</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>228.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -25892,14 +26448,17 @@
       </c>
       <c r="AR187" t="n">
         <v>702.0</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B188" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -26025,15 +26584,18 @@
         <v>24.0</v>
       </c>
       <c r="AR188" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS188" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B189" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -26159,15 +26721,18 @@
         <v>0.0</v>
       </c>
       <c r="AR189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B190" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -26294,14 +26859,17 @@
       </c>
       <c r="AR190" t="n">
         <v>281.0</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -26428,14 +26996,17 @@
       </c>
       <c r="AR191" t="n">
         <v>1204.0</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B192" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -26562,14 +27133,17 @@
       </c>
       <c r="AR192" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B193" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -26696,14 +27270,17 @@
       </c>
       <c r="AR193" t="n">
         <v>216.0</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B194" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -26830,14 +27407,17 @@
       </c>
       <c r="AR194" t="n">
         <v>1808.0</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1764.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B195" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -26964,14 +27544,17 @@
       </c>
       <c r="AR195" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B196" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -27098,14 +27681,17 @@
       </c>
       <c r="AR196" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B197" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -27232,14 +27818,17 @@
       </c>
       <c r="AR197" t="n">
         <v>41.0</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B198" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -27366,14 +27955,17 @@
       </c>
       <c r="AR198" t="n">
         <v>111.0</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -27500,14 +28092,17 @@
       </c>
       <c r="AR199" t="n">
         <v>72.0</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -27634,14 +28229,17 @@
       </c>
       <c r="AR200" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -27768,14 +28366,17 @@
       </c>
       <c r="AR201" t="n">
         <v>108.0</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -27902,14 +28503,17 @@
       </c>
       <c r="AR202" t="n">
         <v>455.0</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>491.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -28036,14 +28640,17 @@
       </c>
       <c r="AR203" t="n">
         <v>43.0</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -28170,14 +28777,17 @@
       </c>
       <c r="AR204" t="n">
         <v>151.0</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>567.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B205" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -28304,14 +28914,17 @@
       </c>
       <c r="AR205" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B206" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -28438,14 +29051,17 @@
       </c>
       <c r="AR206" t="n">
         <v>32.0</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B207" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -28572,14 +29188,17 @@
       </c>
       <c r="AR207" t="n">
         <v>86.0</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -28706,14 +29325,17 @@
       </c>
       <c r="AR208" t="n">
         <v>263.0</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B209" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -28840,14 +29462,17 @@
       </c>
       <c r="AR209" t="n">
         <v>46.0</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B210" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -28974,14 +29599,17 @@
       </c>
       <c r="AR210" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B211" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -29108,14 +29736,17 @@
       </c>
       <c r="AR211" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B212" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -29242,14 +29873,17 @@
       </c>
       <c r="AR212" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -29376,14 +30010,17 @@
       </c>
       <c r="AR213" t="n">
         <v>138.0</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -29509,15 +30146,18 @@
         <v>5.0</v>
       </c>
       <c r="AR214" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AS214" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -29644,14 +30284,17 @@
       </c>
       <c r="AR215" t="n">
         <v>5044.0</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>5081.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -29778,14 +30421,17 @@
       </c>
       <c r="AR216" t="n">
         <v>46.0</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -29912,14 +30558,17 @@
       </c>
       <c r="AR217" t="n">
         <v>1170.0</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1185.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -30045,15 +30694,18 @@
         <v>13.0</v>
       </c>
       <c r="AR218" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS218" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -30180,14 +30832,17 @@
       </c>
       <c r="AR219" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -30314,14 +30969,17 @@
       </c>
       <c r="AR220" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B221" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -30448,14 +31106,17 @@
       </c>
       <c r="AR221" t="n">
         <v>45.0</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B222" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -30582,14 +31243,17 @@
       </c>
       <c r="AR222" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -30716,14 +31380,17 @@
       </c>
       <c r="AR223" t="n">
         <v>53366.0</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>52911.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B224" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -30850,14 +31517,17 @@
       </c>
       <c r="AR224" t="n">
         <v>2524.0</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>2569.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -30984,14 +31654,17 @@
       </c>
       <c r="AR225" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -31118,14 +31791,17 @@
       </c>
       <c r="AR226" t="n">
         <v>105.0</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -31252,14 +31928,17 @@
       </c>
       <c r="AR227" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B228" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -31386,14 +32065,17 @@
       </c>
       <c r="AR228" t="n">
         <v>118.0</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>491.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B229" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -31520,14 +32202,17 @@
       </c>
       <c r="AR229" t="n">
         <v>1296.0</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1338.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B230" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -31654,14 +32339,17 @@
       </c>
       <c r="AR230" t="n">
         <v>5920.0</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>5767.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B231" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -31788,14 +32476,17 @@
       </c>
       <c r="AR231" t="n">
         <v>56.0</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B232" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -31922,14 +32613,17 @@
       </c>
       <c r="AR232" t="n">
         <v>68.0</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B233" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -32056,14 +32750,17 @@
       </c>
       <c r="AR233" t="n">
         <v>186.0</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>760.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -32190,14 +32887,17 @@
       </c>
       <c r="AR234" t="n">
         <v>28.0</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -32324,14 +33024,17 @@
       </c>
       <c r="AR235" t="n">
         <v>295.0</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -32458,14 +33161,17 @@
       </c>
       <c r="AR236" t="n">
         <v>1337.0</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1211.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B237" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -32592,14 +33298,17 @@
       </c>
       <c r="AR237" t="n">
         <v>1112.0</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1105.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -32726,14 +33435,17 @@
       </c>
       <c r="AR238" t="n">
         <v>533.0</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B239" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -32860,14 +33572,17 @@
       </c>
       <c r="AR239" t="n">
         <v>878.0</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B240" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -32994,14 +33709,17 @@
       </c>
       <c r="AR240" t="n">
         <v>304.0</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -33128,14 +33846,17 @@
       </c>
       <c r="AR241" t="n">
         <v>110.0</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B242" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -33262,14 +33983,17 @@
       </c>
       <c r="AR242" t="n">
         <v>121.0</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B243" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -33396,14 +34120,17 @@
       </c>
       <c r="AR243" t="n">
         <v>10100.0</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>9872.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B244" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -33530,14 +34257,17 @@
       </c>
       <c r="AR244" t="n">
         <v>288.0</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B245" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -33663,15 +34393,18 @@
         <v>44.0</v>
       </c>
       <c r="AR245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AS245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -33798,14 +34531,17 @@
       </c>
       <c r="AR246" t="n">
         <v>2619.0</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>2443.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B247" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -33932,14 +34668,17 @@
       </c>
       <c r="AR247" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B248" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -34066,14 +34805,17 @@
       </c>
       <c r="AR248" t="n">
         <v>238.0</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -34200,14 +34942,17 @@
       </c>
       <c r="AR249" t="n">
         <v>2177.0</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2079.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B250" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -34334,14 +35079,17 @@
       </c>
       <c r="AR250" t="n">
         <v>256.0</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -34468,14 +35216,17 @@
       </c>
       <c r="AR251" t="n">
         <v>76.0</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -34602,14 +35353,17 @@
       </c>
       <c r="AR252" t="n">
         <v>345.0</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>319.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B253" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -34736,14 +35490,17 @@
       </c>
       <c r="AR253" t="n">
         <v>837.0</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>841.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B254" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -34870,14 +35627,17 @@
       </c>
       <c r="AR254" t="n">
         <v>38.0</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B255" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -35004,14 +35764,17 @@
       </c>
       <c r="AR255" t="n">
         <v>70.0</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B256" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -35138,14 +35901,17 @@
       </c>
       <c r="AR256" t="n">
         <v>301.0</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>303.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -35272,14 +36038,17 @@
       </c>
       <c r="AR257" t="n">
         <v>146.0</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B258" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -35323,13 +36092,14 @@
       <c r="AP258"/>
       <c r="AQ258"/>
       <c r="AR258"/>
+      <c r="AS258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -35373,13 +36143,14 @@
       <c r="AP259"/>
       <c r="AQ259"/>
       <c r="AR259"/>
+      <c r="AS259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -35423,13 +36194,14 @@
       <c r="AP260"/>
       <c r="AQ260"/>
       <c r="AR260"/>
+      <c r="AS260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B261" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -35473,13 +36245,14 @@
       <c r="AP261"/>
       <c r="AQ261"/>
       <c r="AR261"/>
+      <c r="AS261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -35523,13 +36296,14 @@
       <c r="AP262"/>
       <c r="AQ262"/>
       <c r="AR262"/>
+      <c r="AS262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -35573,13 +36347,14 @@
       <c r="AP263"/>
       <c r="AQ263"/>
       <c r="AR263"/>
+      <c r="AS263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -35623,13 +36398,14 @@
       <c r="AP264"/>
       <c r="AQ264"/>
       <c r="AR264"/>
+      <c r="AS264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -35673,13 +36449,14 @@
       <c r="AP265"/>
       <c r="AQ265"/>
       <c r="AR265"/>
+      <c r="AS265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -35723,13 +36500,14 @@
       <c r="AP266"/>
       <c r="AQ266"/>
       <c r="AR266"/>
+      <c r="AS266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -35773,13 +36551,14 @@
       <c r="AP267"/>
       <c r="AQ267"/>
       <c r="AR267"/>
+      <c r="AS267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -35823,13 +36602,14 @@
       <c r="AP268"/>
       <c r="AQ268"/>
       <c r="AR268"/>
+      <c r="AS268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -35873,13 +36653,14 @@
       <c r="AP269"/>
       <c r="AQ269"/>
       <c r="AR269"/>
+      <c r="AS269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -35923,13 +36704,14 @@
       <c r="AP270"/>
       <c r="AQ270"/>
       <c r="AR270"/>
+      <c r="AS270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -35973,13 +36755,14 @@
       <c r="AP271"/>
       <c r="AQ271"/>
       <c r="AR271"/>
+      <c r="AS271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -36023,13 +36806,14 @@
       <c r="AP272"/>
       <c r="AQ272"/>
       <c r="AR272"/>
+      <c r="AS272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -36073,13 +36857,14 @@
       <c r="AP273"/>
       <c r="AQ273"/>
       <c r="AR273"/>
+      <c r="AS273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -36123,13 +36908,14 @@
       <c r="AP274"/>
       <c r="AQ274"/>
       <c r="AR274"/>
+      <c r="AS274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -36173,13 +36959,14 @@
       <c r="AP275"/>
       <c r="AQ275"/>
       <c r="AR275"/>
+      <c r="AS275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -36223,13 +37010,14 @@
       <c r="AP276"/>
       <c r="AQ276"/>
       <c r="AR276"/>
+      <c r="AS276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B277" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -36273,13 +37061,14 @@
       <c r="AP277"/>
       <c r="AQ277"/>
       <c r="AR277"/>
+      <c r="AS277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -36323,13 +37112,14 @@
       <c r="AP278"/>
       <c r="AQ278"/>
       <c r="AR278"/>
+      <c r="AS278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -36373,6 +37163,7 @@
       <c r="AP279"/>
       <c r="AQ279"/>
       <c r="AR279"/>
+      <c r="AS279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
